--- a/section2/ExcelHomework.xlsx
+++ b/section2/ExcelHomework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyslo\Code\SavvyCoders\Homework\section2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0128E99F-695C-4980-9761-A224CF4EE4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07AFEEB3-AC73-469A-B326-76D2BA67C156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="21" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId8"/>
+    <pivotCache cacheId="22" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="196">
   <si>
     <t>Step</t>
   </si>
@@ -705,6 +705,12 @@
   <si>
     <t>Wal-Mart</t>
   </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
 </sst>
 </file>
 
@@ -998,7 +1004,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1122,6 +1128,9 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="7" builtinId="3"/>
@@ -1134,7 +1143,162 @@
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Style 1" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="57">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <protection locked="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3371,7 +3535,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Payments!$D$3</c:f>
+              <c:f>Payments!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3392,9 +3556,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Payments!$A$4:$C$8</c:f>
+              <c:f>Payments!$A$4:$B$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>B1</c:v>
@@ -3404,6 +3568,23 @@
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>PC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>PC</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Feb</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3416,18 +3597,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$D$4:$D$8</c:f>
+              <c:f>Payments!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>64894.25</c:v>
+                  <c:v>30270.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7993,8 +8183,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C747A03D-941B-49C8-99D0-ECF203354D40}" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
-  <location ref="A3:D8" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C747A03D-941B-49C8-99D0-ECF203354D40}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+  <location ref="A3:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0" sortType="descending">
@@ -8154,18 +8344,33 @@
   </pivotFields>
   <rowFields count="3">
     <field x="10"/>
+    <field x="8"/>
     <field x="6"/>
-    <field x="8"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="10">
     <i>
       <x v="2"/>
+      <x v="1"/>
+    </i>
+    <i r="2">
       <x/>
     </i>
-    <i r="1">
+    <i r="2">
       <x v="1"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
       <x v="2"/>
     </i>
     <i t="default">
@@ -8182,46 +8387,46 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="34">
+    <format dxfId="56">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="55">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="48">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    <format dxfId="47">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="46">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    <format dxfId="45">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="3">
@@ -8232,28 +8437,28 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    <format dxfId="41">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="18">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    <format dxfId="40">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="17">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    <format dxfId="39">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="38">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    <format dxfId="37">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="14">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    <format dxfId="36">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8281,18 +8486,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20024602-86CA-4E00-B05D-3EC6222B50EE}" name="Table2" displayName="Table2" ref="A2:I210" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20024602-86CA-4E00-B05D-3EC6222B50EE}" name="Table2" displayName="Table2" ref="A2:I210" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
   <autoFilter ref="A2:I210" xr:uid="{20024602-86CA-4E00-B05D-3EC6222B50EE}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{49EF2A0F-1727-4655-B961-3129B370281A}" name="Document Date" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{554837F5-F7FD-4F0E-B670-4EEEEE8E5EC7}" name="Supplier" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4B5F848B-537D-4B47-8736-9EAB23EFB964}" name="Reference" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{40E7F82E-2B52-46D0-803E-F6924CF35892}" name="Description" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{60AC2904-3B6D-402C-A387-F899EFB1ACC0}" name="Tax Inclusive Amount" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{7BE48675-D866-4989-AF6D-964A384F2DB3}" name="Tax Code" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{5DCBA414-9EF9-41E6-8407-C99896598773}" name="Bank Code" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{8FB084E8-3320-4977-84F5-7CE9616F2065}" name="Account Code" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{71DACAA5-A3E3-406C-923D-30DBC1AD7B50}" name="Payment Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{49EF2A0F-1727-4655-B961-3129B370281A}" name="Document Date" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{554837F5-F7FD-4F0E-B670-4EEEEE8E5EC7}" name="Supplier" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{4B5F848B-537D-4B47-8736-9EAB23EFB964}" name="Reference" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{40E7F82E-2B52-46D0-803E-F6924CF35892}" name="Description" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{60AC2904-3B6D-402C-A387-F899EFB1ACC0}" name="Tax Inclusive Amount" dataDxfId="26" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{7BE48675-D866-4989-AF6D-964A384F2DB3}" name="Tax Code" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{5DCBA414-9EF9-41E6-8407-C99896598773}" name="Bank Code" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{8FB084E8-3320-4977-84F5-7CE9616F2065}" name="Account Code" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{71DACAA5-A3E3-406C-923D-30DBC1AD7B50}" name="Payment Date" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8591,8 +8796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60BCBE4-FD6E-48F7-A916-77868B0707EA}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8849,8 +9054,8 @@
         <v>181</v>
       </c>
       <c r="B21" s="36">
-        <f>COUNT(B4:B14)</f>
-        <v>0</v>
+        <f>COUNTA(B4:B14)</f>
+        <v>11</v>
       </c>
       <c r="C21" s="36">
         <f>COUNT(C4:C14)</f>
@@ -8870,8 +9075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3E3EDF-2482-4049-BA5D-2FB66799CC23}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9048,7 +9253,9 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15283,17 +15490,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2CD4B6-A3AC-473F-A4D7-22C614C017F7}">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -15310,65 +15517,106 @@
     <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="C3" s="46" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>157</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="35">
-        <v>64894.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="C4" s="35">
+        <v>30301.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="35">
+        <v>30270.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="35">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="29" t="s">
+      <c r="C6" s="35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="C7" s="35">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="35">
+        <v>34664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="35">
+        <v>34624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="35">
+      <c r="C12" s="35">
         <v>64965.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="35">
+      <c r="B13" s="36"/>
+      <c r="C13" s="35">
         <v>64965.25</v>
       </c>
     </row>

--- a/section2/ExcelHomework.xlsx
+++ b/section2/ExcelHomework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyslo\Code\SavvyCoders\Homework\section2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07AFEEB3-AC73-469A-B326-76D2BA67C156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD324B50-4F71-4C4D-A894-6E8DCDAA3049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="21" r:id="rId1"/>
@@ -18,18 +18,20 @@
     <sheet name="Instructions" sheetId="6" r:id="rId3"/>
     <sheet name="Expenses" sheetId="15" r:id="rId4"/>
     <sheet name="Payments" sheetId="19" r:id="rId5"/>
-    <sheet name="ExpTable" sheetId="17" r:id="rId6"/>
-    <sheet name="Homework Instructions" sheetId="16" r:id="rId7"/>
+    <sheet name="IAS" sheetId="23" r:id="rId6"/>
+    <sheet name="ExpTable" sheetId="17" r:id="rId7"/>
+    <sheet name="Homework Instructions" sheetId="16" r:id="rId8"/>
+    <sheet name="Table Example" sheetId="24" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Homework Instructions'!$A$1:$B$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Homework Instructions'!$A$1:$B$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Instructions!$A$1:$B$16</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'Homework Instructions'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'Homework Instructions'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Instructions!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId8"/>
+    <pivotCache cacheId="32" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="196">
   <si>
     <t>Step</t>
   </si>
@@ -1004,7 +1006,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1131,6 +1133,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="7" builtinId="3"/>
@@ -1143,7 +1151,259 @@
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Style 1" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="191">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -1298,6 +1558,805 @@
         <b/>
         <family val="2"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <protection locked="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <protection locked="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <protection locked="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <protection locked="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <protection locked="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <font>
@@ -5595,7 +6654,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dakotah Hyslop" refreshedDate="45041.933487037037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="208" xr:uid="{04CACD4D-5E49-411C-9FA6-9AFF63038AB9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dakotah Hyslop" refreshedDate="45049.597723148145" missingItemsLimit="1048576" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="208" xr:uid="{04CACD4D-5E49-411C-9FA6-9AFF63038AB9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -5638,77 +6697,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Tax Inclusive Amount" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20000" maxValue="20000" count="69">
-        <n v="5100"/>
-        <n v="179"/>
-        <n v="478"/>
-        <n v="340"/>
-        <n v="50"/>
-        <n v="35"/>
-        <n v="1000"/>
-        <n v="90"/>
-        <n v="200"/>
-        <n v="-15000"/>
-        <n v="15000"/>
-        <n v="13000"/>
-        <n v="220"/>
-        <n v="100"/>
-        <n v="6400"/>
-        <n v="-100"/>
-        <n v="87"/>
-        <n v="80"/>
-        <n v="-20000"/>
-        <n v="20000"/>
-        <n v="1300"/>
-        <n v="3000"/>
-        <n v="41"/>
-        <n v="563"/>
-        <n v="982"/>
-        <n v="65"/>
-        <n v="110"/>
-        <n v="8700"/>
-        <n v="1782"/>
-        <n v="761"/>
-        <n v="29"/>
-        <n v="937"/>
-        <n v="2000"/>
-        <n v="-50"/>
-        <n v="78"/>
-        <n v="747"/>
-        <n v="1278"/>
-        <n v="3750"/>
-        <n v="6600"/>
-        <n v="234"/>
-        <n v="2600"/>
-        <n v="277.48"/>
-        <n v="5620"/>
-        <n v="12500"/>
-        <n v="4242"/>
-        <n v="62"/>
-        <n v="1887"/>
-        <n v="289"/>
-        <n v="3300"/>
-        <n v="218"/>
-        <n v="-200"/>
-        <n v="102"/>
-        <n v="170"/>
-        <n v="-170"/>
-        <n v="96"/>
-        <n v="120"/>
-        <n v="310"/>
-        <n v="962"/>
-        <n v="61"/>
-        <n v="8400"/>
-        <n v="105"/>
-        <n v="389.25"/>
-        <n v="514"/>
-        <n v="2200"/>
-        <n v="75"/>
-        <n v="10000"/>
-        <n v="70"/>
-        <n v="-70"/>
-        <n v="3700"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20000" maxValue="20000"/>
     </cacheField>
     <cacheField name="Tax Code" numFmtId="0">
       <sharedItems/>
@@ -5896,7 +6885,7 @@
     <x v="0"/>
     <s v="S77782"/>
     <s v="Opening Balance"/>
-    <x v="0"/>
+    <n v="5100"/>
     <s v="A"/>
     <x v="0"/>
     <s v="BS-500"/>
@@ -5907,7 +6896,7 @@
     <x v="1"/>
     <s v="Invoice EXP22"/>
     <s v="Internet Service Provider"/>
-    <x v="1"/>
+    <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -5918,7 +6907,7 @@
     <x v="2"/>
     <s v="I381119"/>
     <s v="Subscriptions"/>
-    <x v="2"/>
+    <n v="478"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-375"/>
@@ -5929,7 +6918,7 @@
     <x v="3"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <x v="3"/>
+    <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -5940,7 +6929,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="4"/>
+    <n v="50"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -5951,7 +6940,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="5"/>
+    <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -5962,7 +6951,7 @@
     <x v="5"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <x v="6"/>
+    <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -5973,7 +6962,7 @@
     <x v="6"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <x v="7"/>
+    <n v="90"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -5984,7 +6973,7 @@
     <x v="7"/>
     <s v="TR6998"/>
     <s v="Parking"/>
-    <x v="8"/>
+    <n v="200"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-390"/>
@@ -5995,7 +6984,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="9"/>
+    <n v="-15000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -6006,7 +6995,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="10"/>
+    <n v="15000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6017,7 +7006,7 @@
     <x v="8"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <x v="11"/>
+    <n v="13000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -6028,7 +7017,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <x v="12"/>
+    <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -6039,7 +7028,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -6050,7 +7039,7 @@
     <x v="10"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <x v="14"/>
+    <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -6061,7 +7050,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6072,7 +7061,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="15"/>
+    <n v="-100"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -6083,7 +7072,7 @@
     <x v="1"/>
     <s v="Invoice EXP23"/>
     <s v="Internet Service Provider"/>
-    <x v="1"/>
+    <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -6094,7 +7083,7 @@
     <x v="3"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <x v="3"/>
+    <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -6105,7 +7094,7 @@
     <x v="6"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <x v="16"/>
+    <n v="87"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -6116,7 +7105,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="17"/>
+    <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -6127,7 +7116,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="5"/>
+    <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -6138,7 +7127,7 @@
     <x v="5"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <x v="6"/>
+    <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -6149,7 +7138,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="18"/>
+    <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -6160,7 +7149,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6171,7 +7160,7 @@
     <x v="11"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <x v="20"/>
+    <n v="1300"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-600"/>
@@ -6182,7 +7171,7 @@
     <x v="8"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -6193,7 +7182,7 @@
     <x v="12"/>
     <s v="Invoice"/>
     <s v="Furniture"/>
-    <x v="21"/>
+    <n v="3000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="BS-100"/>
@@ -6204,7 +7193,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <x v="12"/>
+    <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -6215,7 +7204,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -6226,7 +7215,7 @@
     <x v="10"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <x v="14"/>
+    <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -6237,7 +7226,7 @@
     <x v="13"/>
     <s v="IN1179"/>
     <s v="Consumables"/>
-    <x v="22"/>
+    <n v="41"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-325"/>
@@ -6248,7 +7237,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6259,7 +7248,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="15"/>
+    <n v="-100"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -6270,7 +7259,7 @@
     <x v="1"/>
     <s v="Invoice EXP24"/>
     <s v="Internet Service Provider"/>
-    <x v="1"/>
+    <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -6281,7 +7270,7 @@
     <x v="14"/>
     <s v="Invoice"/>
     <s v="Course"/>
-    <x v="12"/>
+    <n v="220"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-385"/>
@@ -6292,7 +7281,7 @@
     <x v="3"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <x v="3"/>
+    <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -6303,7 +7292,7 @@
     <x v="15"/>
     <s v="S50037"/>
     <s v="Accommodation"/>
-    <x v="23"/>
+    <n v="563"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-390"/>
@@ -6314,7 +7303,7 @@
     <x v="16"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <x v="24"/>
+    <n v="982"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-370"/>
@@ -6325,7 +7314,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="17"/>
+    <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -6336,7 +7325,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="5"/>
+    <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -6347,7 +7336,7 @@
     <x v="5"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <x v="6"/>
+    <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -6358,7 +7347,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="18"/>
+    <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -6369,7 +7358,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6380,7 +7369,7 @@
     <x v="8"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -6391,7 +7380,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <x v="12"/>
+    <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -6402,7 +7391,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -6413,7 +7402,7 @@
     <x v="10"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <x v="14"/>
+    <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -6424,7 +7413,7 @@
     <x v="6"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <x v="25"/>
+    <n v="65"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -6435,7 +7424,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6446,7 +7435,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="15"/>
+    <n v="-100"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -6457,7 +7446,7 @@
     <x v="1"/>
     <s v="Invoice EXP25"/>
     <s v="Internet Service Provider"/>
-    <x v="1"/>
+    <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -6468,7 +7457,7 @@
     <x v="3"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <x v="3"/>
+    <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -6479,7 +7468,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="17"/>
+    <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -6490,7 +7479,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="5"/>
+    <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -6501,7 +7490,7 @@
     <x v="5"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <x v="6"/>
+    <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -6512,7 +7501,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="18"/>
+    <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -6523,7 +7512,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6534,7 +7523,7 @@
     <x v="6"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <x v="26"/>
+    <n v="110"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -6545,7 +7534,7 @@
     <x v="11"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <x v="27"/>
+    <n v="8700"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-600"/>
@@ -6556,7 +7545,7 @@
     <x v="8"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -6567,7 +7556,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <x v="12"/>
+    <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -6578,7 +7567,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -6589,7 +7578,7 @@
     <x v="10"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <x v="14"/>
+    <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -6600,7 +7589,7 @@
     <x v="17"/>
     <s v="SA11235"/>
     <s v="Travel"/>
-    <x v="28"/>
+    <n v="1782"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-390"/>
@@ -6611,7 +7600,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6622,7 +7611,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="15"/>
+    <n v="-100"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -6633,7 +7622,7 @@
     <x v="1"/>
     <s v="Invoice EXP26"/>
     <s v="Internet Service Provider"/>
-    <x v="1"/>
+    <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -6644,7 +7633,7 @@
     <x v="16"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <x v="29"/>
+    <n v="761"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-370"/>
@@ -6655,7 +7644,7 @@
     <x v="3"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <x v="3"/>
+    <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -6666,7 +7655,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="17"/>
+    <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -6677,7 +7666,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="5"/>
+    <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -6688,7 +7677,7 @@
     <x v="5"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <x v="6"/>
+    <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -6699,7 +7688,7 @@
     <x v="6"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <x v="30"/>
+    <n v="29"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -6710,7 +7699,7 @@
     <x v="13"/>
     <s v="IN1181"/>
     <s v="Consumables"/>
-    <x v="31"/>
+    <n v="937"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-325"/>
@@ -6721,7 +7710,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="18"/>
+    <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -6732,7 +7721,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6743,7 +7732,7 @@
     <x v="18"/>
     <s v="M00321037"/>
     <s v="Annual Membership"/>
-    <x v="32"/>
+    <n v="2000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-375"/>
@@ -6754,7 +7743,7 @@
     <x v="8"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -6765,7 +7754,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <x v="12"/>
+    <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -6776,7 +7765,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -6787,7 +7776,7 @@
     <x v="10"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <x v="14"/>
+    <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -6798,7 +7787,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="4"/>
+    <n v="50"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6809,7 +7798,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="33"/>
+    <n v="-50"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -6820,7 +7809,7 @@
     <x v="1"/>
     <s v="Invoice EXP27"/>
     <s v="Internet Service Provider"/>
-    <x v="1"/>
+    <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -6831,7 +7820,7 @@
     <x v="3"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <x v="3"/>
+    <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -6842,7 +7831,7 @@
     <x v="6"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <x v="34"/>
+    <n v="78"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -6853,7 +7842,7 @@
     <x v="19"/>
     <s v="Invoice 9987"/>
     <s v="Commission"/>
-    <x v="35"/>
+    <n v="747"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-320"/>
@@ -6864,7 +7853,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="17"/>
+    <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -6875,7 +7864,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="5"/>
+    <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -6886,7 +7875,7 @@
     <x v="5"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <x v="6"/>
+    <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -6897,7 +7886,7 @@
     <x v="17"/>
     <s v="SA11988"/>
     <s v="Travel"/>
-    <x v="36"/>
+    <n v="1278"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-390"/>
@@ -6908,7 +7897,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="18"/>
+    <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -6919,7 +7908,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6930,7 +7919,7 @@
     <x v="20"/>
     <s v="Remittance"/>
     <s v="Share investment"/>
-    <x v="37"/>
+    <n v="3750"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-200"/>
@@ -6941,7 +7930,7 @@
     <x v="11"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <x v="38"/>
+    <n v="6600"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-600"/>
@@ -6952,7 +7941,7 @@
     <x v="8"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -6963,7 +7952,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <x v="12"/>
+    <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -6974,7 +7963,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -6985,7 +7974,7 @@
     <x v="10"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <x v="14"/>
+    <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -6996,7 +7985,7 @@
     <x v="16"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <x v="39"/>
+    <n v="234"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-370"/>
@@ -7007,7 +7996,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="4"/>
+    <n v="50"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -7018,7 +8007,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="33"/>
+    <n v="-50"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -7029,7 +8018,7 @@
     <x v="11"/>
     <s v="Return"/>
     <s v="Provisional Tax"/>
-    <x v="40"/>
+    <n v="2600"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-600"/>
@@ -7040,7 +8029,7 @@
     <x v="1"/>
     <s v="Invoice EXP28"/>
     <s v="Internet Service Provider"/>
-    <x v="1"/>
+    <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -7051,7 +8040,7 @@
     <x v="3"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <x v="3"/>
+    <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -7062,7 +8051,7 @@
     <x v="14"/>
     <s v="Invoice"/>
     <s v="Course"/>
-    <x v="41"/>
+    <n v="277.48"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-385"/>
@@ -7073,7 +8062,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="17"/>
+    <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -7084,7 +8073,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="5"/>
+    <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -7095,7 +8084,7 @@
     <x v="5"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <x v="6"/>
+    <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -7106,7 +8095,7 @@
     <x v="21"/>
     <s v="Statement"/>
     <s v="Rates"/>
-    <x v="42"/>
+    <n v="5620"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-395"/>
@@ -7117,7 +8106,7 @@
     <x v="22"/>
     <s v="Invoice"/>
     <s v="Legal advice"/>
-    <x v="43"/>
+    <n v="12500"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-360"/>
@@ -7128,7 +8117,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="18"/>
+    <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -7139,7 +8128,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -7150,7 +8139,7 @@
     <x v="6"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <x v="7"/>
+    <n v="90"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -7161,7 +8150,7 @@
     <x v="19"/>
     <s v="Invoice11203"/>
     <s v="Commission"/>
-    <x v="44"/>
+    <n v="4242"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-320"/>
@@ -7172,7 +8161,7 @@
     <x v="8"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -7183,7 +8172,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <x v="12"/>
+    <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -7194,7 +8183,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -7205,7 +8194,7 @@
     <x v="10"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <x v="14"/>
+    <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -7216,7 +8205,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -7227,7 +8216,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="15"/>
+    <n v="-100"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -7238,7 +8227,7 @@
     <x v="1"/>
     <s v="Invoice EXP29"/>
     <s v="Internet Service Provider"/>
-    <x v="1"/>
+    <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -7249,7 +8238,7 @@
     <x v="13"/>
     <s v="IN1185"/>
     <s v="Consumables"/>
-    <x v="45"/>
+    <n v="62"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-325"/>
@@ -7260,7 +8249,7 @@
     <x v="17"/>
     <s v="SA12741"/>
     <s v="Travel"/>
-    <x v="46"/>
+    <n v="1887"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-390"/>
@@ -7271,7 +8260,7 @@
     <x v="3"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <x v="3"/>
+    <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -7282,7 +8271,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="17"/>
+    <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -7293,7 +8282,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="5"/>
+    <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -7304,7 +8293,7 @@
     <x v="5"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <x v="6"/>
+    <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -7315,7 +8304,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="18"/>
+    <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -7326,7 +8315,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -7337,7 +8326,7 @@
     <x v="16"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <x v="47"/>
+    <n v="289"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-370"/>
@@ -7348,7 +8337,7 @@
     <x v="11"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <x v="48"/>
+    <n v="3300"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-600"/>
@@ -7359,7 +8348,7 @@
     <x v="8"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -7370,7 +8359,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <x v="12"/>
+    <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -7381,7 +8370,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -7392,7 +8381,7 @@
     <x v="10"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <x v="14"/>
+    <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -7403,7 +8392,7 @@
     <x v="6"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <x v="49"/>
+    <n v="218"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -7414,7 +8403,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="8"/>
+    <n v="200"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -7425,7 +8414,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="50"/>
+    <n v="-200"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -7436,7 +8425,7 @@
     <x v="1"/>
     <s v="Invoice EXP30"/>
     <s v="Internet Service Provider"/>
-    <x v="1"/>
+    <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -7447,7 +8436,7 @@
     <x v="3"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <x v="3"/>
+    <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -7458,7 +8447,7 @@
     <x v="19"/>
     <s v="Invoice 12987"/>
     <s v="Commission"/>
-    <x v="24"/>
+    <n v="982"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-320"/>
@@ -7469,7 +8458,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="17"/>
+    <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -7480,7 +8469,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="5"/>
+    <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -7491,7 +8480,7 @@
     <x v="5"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <x v="6"/>
+    <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -7502,7 +8491,7 @@
     <x v="6"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <x v="51"/>
+    <n v="102"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -7513,7 +8502,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="18"/>
+    <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -7524,7 +8513,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -7535,7 +8524,7 @@
     <x v="8"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -7546,7 +8535,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <x v="12"/>
+    <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -7557,7 +8546,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -7568,7 +8557,7 @@
     <x v="10"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <x v="14"/>
+    <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -7579,7 +8568,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="52"/>
+    <n v="170"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -7590,7 +8579,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="53"/>
+    <n v="-170"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -7601,7 +8590,7 @@
     <x v="1"/>
     <s v="Invoice EXP31"/>
     <s v="Internet Service Provider"/>
-    <x v="1"/>
+    <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -7612,7 +8601,7 @@
     <x v="3"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <x v="3"/>
+    <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -7623,7 +8612,7 @@
     <x v="6"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <x v="54"/>
+    <n v="96"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -7634,7 +8623,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="17"/>
+    <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -7645,7 +8634,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="5"/>
+    <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -7656,7 +8645,7 @@
     <x v="5"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <x v="6"/>
+    <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -7667,7 +8656,7 @@
     <x v="2"/>
     <s v="M00353051"/>
     <s v="Subscriptions"/>
-    <x v="55"/>
+    <n v="120"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-375"/>
@@ -7678,7 +8667,7 @@
     <x v="16"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <x v="56"/>
+    <n v="310"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-370"/>
@@ -7689,7 +8678,7 @@
     <x v="19"/>
     <s v="Invoice 13432"/>
     <s v="Commission"/>
-    <x v="57"/>
+    <n v="962"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-320"/>
@@ -7700,7 +8689,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="18"/>
+    <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -7711,7 +8700,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -7722,7 +8711,7 @@
     <x v="13"/>
     <s v="IN1192"/>
     <s v="Consumables"/>
-    <x v="58"/>
+    <n v="61"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-325"/>
@@ -7733,7 +8722,7 @@
     <x v="11"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <x v="59"/>
+    <n v="8400"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-600"/>
@@ -7744,7 +8733,7 @@
     <x v="8"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -7755,7 +8744,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <x v="12"/>
+    <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -7766,7 +8755,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -7777,7 +8766,7 @@
     <x v="10"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <x v="14"/>
+    <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -7788,7 +8777,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -7799,7 +8788,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="15"/>
+    <n v="-100"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -7810,7 +8799,7 @@
     <x v="1"/>
     <s v="Invoice EXP32"/>
     <s v="Internet Service Provider"/>
-    <x v="1"/>
+    <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -7821,7 +8810,7 @@
     <x v="3"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <x v="3"/>
+    <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -7832,7 +8821,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="17"/>
+    <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -7843,7 +8832,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="5"/>
+    <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -7854,7 +8843,7 @@
     <x v="5"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <x v="6"/>
+    <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -7865,7 +8854,7 @@
     <x v="6"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <x v="60"/>
+    <n v="105"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -7876,7 +8865,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="18"/>
+    <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -7887,7 +8876,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -7898,7 +8887,7 @@
     <x v="8"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -7909,7 +8898,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <x v="12"/>
+    <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -7920,7 +8909,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -7931,7 +8920,7 @@
     <x v="10"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <x v="14"/>
+    <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -7942,7 +8931,7 @@
     <x v="14"/>
     <s v="Invoice"/>
     <s v="Training"/>
-    <x v="61"/>
+    <n v="389.25"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-385"/>
@@ -7953,7 +8942,7 @@
     <x v="19"/>
     <s v="Invoice 14278"/>
     <s v="Commission"/>
-    <x v="62"/>
+    <n v="514"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-320"/>
@@ -7964,7 +8953,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="52"/>
+    <n v="170"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -7975,7 +8964,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="53"/>
+    <n v="-170"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -7986,7 +8975,7 @@
     <x v="1"/>
     <s v="Invoice EXP33"/>
     <s v="Internet Service Provider"/>
-    <x v="1"/>
+    <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -7997,7 +8986,7 @@
     <x v="3"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <x v="3"/>
+    <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -8008,7 +8997,7 @@
     <x v="16"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <x v="47"/>
+    <n v="289"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-370"/>
@@ -8019,7 +9008,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="17"/>
+    <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -8030,7 +9019,7 @@
     <x v="4"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <x v="5"/>
+    <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -8041,7 +9030,7 @@
     <x v="5"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <x v="6"/>
+    <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -8052,7 +9041,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="18"/>
+    <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -8063,7 +9052,7 @@
     <x v="8"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -8074,7 +9063,7 @@
     <x v="11"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <x v="63"/>
+    <n v="2200"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-600"/>
@@ -8085,7 +9074,7 @@
     <x v="6"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <x v="64"/>
+    <n v="75"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -8096,7 +9085,7 @@
     <x v="23"/>
     <s v="Invoice"/>
     <s v="Office equipment"/>
-    <x v="65"/>
+    <n v="10000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="BS-100"/>
@@ -8107,7 +9096,7 @@
     <x v="8"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <x v="19"/>
+    <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -8118,7 +9107,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <x v="12"/>
+    <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -8129,7 +9118,7 @@
     <x v="9"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <x v="13"/>
+    <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -8140,7 +9129,7 @@
     <x v="10"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <x v="14"/>
+    <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -8151,7 +9140,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="66"/>
+    <n v="70"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -8162,7 +9151,7 @@
     <x v="8"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <x v="67"/>
+    <n v="-70"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -8173,7 +9162,7 @@
     <x v="11"/>
     <s v="Return"/>
     <s v="Provisional Tax"/>
-    <x v="68"/>
+    <n v="3700"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-600"/>
@@ -8183,115 +9172,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C747A03D-941B-49C8-99D0-ECF203354D40}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C747A03D-941B-49C8-99D0-ECF203354D40}" name="PivotTable2" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
   <location ref="A3:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0" sortType="descending">
-      <items count="25">
-        <item h="1" x="19"/>
-        <item h="1" x="0"/>
-        <item h="1" x="16"/>
-        <item h="1" x="14"/>
-        <item h="1" x="17"/>
-        <item h="1" x="7"/>
-        <item h="1" x="22"/>
-        <item h="1" x="10"/>
-        <item h="1" x="2"/>
-        <item h="1" x="21"/>
-        <item h="1" x="20"/>
-        <item h="1" x="1"/>
-        <item h="1" x="6"/>
-        <item h="1" x="11"/>
-        <item x="5"/>
-        <item h="1" x="9"/>
-        <item h="1" x="13"/>
-        <item h="1" x="12"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="23"/>
-        <item h="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0" sortType="descending"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0">
-      <items count="70">
-        <item x="18"/>
-        <item x="9"/>
-        <item x="50"/>
-        <item x="53"/>
-        <item x="15"/>
-        <item x="67"/>
-        <item x="33"/>
-        <item x="30"/>
-        <item x="5"/>
-        <item x="22"/>
-        <item x="4"/>
-        <item x="58"/>
-        <item x="45"/>
-        <item x="25"/>
-        <item x="66"/>
-        <item x="64"/>
-        <item x="34"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="7"/>
-        <item x="54"/>
-        <item x="13"/>
-        <item x="51"/>
-        <item x="60"/>
-        <item x="26"/>
-        <item x="55"/>
-        <item x="52"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="49"/>
-        <item x="12"/>
-        <item x="39"/>
-        <item x="41"/>
-        <item x="47"/>
-        <item x="56"/>
-        <item x="3"/>
-        <item x="61"/>
-        <item x="2"/>
-        <item x="62"/>
-        <item x="23"/>
-        <item x="35"/>
-        <item x="29"/>
-        <item x="31"/>
-        <item x="57"/>
-        <item x="24"/>
-        <item x="6"/>
-        <item x="36"/>
-        <item x="20"/>
-        <item x="28"/>
-        <item x="46"/>
-        <item x="32"/>
-        <item x="63"/>
-        <item x="40"/>
-        <item x="21"/>
-        <item x="48"/>
-        <item x="68"/>
-        <item x="37"/>
-        <item x="44"/>
-        <item x="0"/>
-        <item x="42"/>
-        <item x="14"/>
-        <item x="38"/>
-        <item x="59"/>
-        <item x="27"/>
-        <item x="65"/>
-        <item x="43"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" outline="0" showAll="0">
       <items count="4">
@@ -8387,46 +9275,46 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="56">
+    <format dxfId="190">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="189">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="188">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="187">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="186">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="185">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="184">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="183">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="182">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="181">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="180">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="179">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="178">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="177">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="3">
@@ -8437,28 +9325,28 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="176">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="175">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="174">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="173">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="172">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="171">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="170">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="169">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8485,19 +9373,115 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{037326E0-118F-47A0-BC9D-9A8E5ECC1128}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="25">
+        <item h="1" x="19"/>
+        <item h="1" x="0"/>
+        <item h="1" x="16"/>
+        <item h="1" x="14"/>
+        <item h="1" x="17"/>
+        <item h="1" x="7"/>
+        <item h="1" x="22"/>
+        <item h="1" x="10"/>
+        <item h="1" x="2"/>
+        <item h="1" x="21"/>
+        <item h="1" x="20"/>
+        <item h="1" x="1"/>
+        <item h="1" x="6"/>
+        <item h="1" x="11"/>
+        <item x="5"/>
+        <item h="1" x="9"/>
+        <item h="1" x="13"/>
+        <item h="1" x="12"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="23"/>
+        <item h="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="1" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="155">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20024602-86CA-4E00-B05D-3EC6222B50EE}" name="Table2" displayName="Table2" ref="A2:I210" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20024602-86CA-4E00-B05D-3EC6222B50EE}" name="Table2" displayName="Table2" ref="A2:I210" totalsRowShown="0" headerRowDxfId="168" dataDxfId="166" headerRowBorderDxfId="167" tableBorderDxfId="165">
   <autoFilter ref="A2:I210" xr:uid="{20024602-86CA-4E00-B05D-3EC6222B50EE}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{49EF2A0F-1727-4655-B961-3129B370281A}" name="Document Date" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{554837F5-F7FD-4F0E-B670-4EEEEE8E5EC7}" name="Supplier" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{4B5F848B-537D-4B47-8736-9EAB23EFB964}" name="Reference" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{40E7F82E-2B52-46D0-803E-F6924CF35892}" name="Description" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{60AC2904-3B6D-402C-A387-F899EFB1ACC0}" name="Tax Inclusive Amount" dataDxfId="26" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{7BE48675-D866-4989-AF6D-964A384F2DB3}" name="Tax Code" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{5DCBA414-9EF9-41E6-8407-C99896598773}" name="Bank Code" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{8FB084E8-3320-4977-84F5-7CE9616F2065}" name="Account Code" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{71DACAA5-A3E3-406C-923D-30DBC1AD7B50}" name="Payment Date" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{49EF2A0F-1727-4655-B961-3129B370281A}" name="Document Date" dataDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{554837F5-F7FD-4F0E-B670-4EEEEE8E5EC7}" name="Supplier" dataDxfId="163"/>
+    <tableColumn id="3" xr3:uid="{4B5F848B-537D-4B47-8736-9EAB23EFB964}" name="Reference" dataDxfId="162"/>
+    <tableColumn id="4" xr3:uid="{40E7F82E-2B52-46D0-803E-F6924CF35892}" name="Description" dataDxfId="161"/>
+    <tableColumn id="5" xr3:uid="{60AC2904-3B6D-402C-A387-F899EFB1ACC0}" name="Tax Inclusive Amount" dataDxfId="160" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{7BE48675-D866-4989-AF6D-964A384F2DB3}" name="Tax Code" dataDxfId="159"/>
+    <tableColumn id="7" xr3:uid="{5DCBA414-9EF9-41E6-8407-C99896598773}" name="Bank Code" dataDxfId="158"/>
+    <tableColumn id="8" xr3:uid="{8FB084E8-3320-4977-84F5-7CE9616F2065}" name="Account Code" dataDxfId="157"/>
+    <tableColumn id="9" xr3:uid="{71DACAA5-A3E3-406C-923D-30DBC1AD7B50}" name="Payment Date" dataDxfId="156"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCA98589-6D65-4266-AA90-60268AE867A4}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="A2:I210" xr:uid="{DCA98589-6D65-4266-AA90-60268AE867A4}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{43F681CB-CD11-4559-B634-5DF601EC6F4C}" name="Document Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F0021E6B-0388-4121-9206-792A652A85BE}" name="Supplier" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{48F40073-BC34-452A-85CD-292A466EF44B}" name="Reference" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{CE1E7C55-E57D-452C-B766-0758964A255E}" name="Description" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A87A6EA1-266E-421B-906B-3B3E1CD50563}" name="Tax Inclusive Amount" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{581EE525-63C0-491F-8B39-AA69DCB3E224}" name="Tax Code" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{4C1FFD7A-2E49-434B-A7B9-8EFC7C3D1848}" name="Bank Code" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{56586177-232C-4814-8C4A-57463292FB06}" name="Account Code" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{C414DDFD-9BD4-4C00-8B53-9D59600E7B2F}" name="Payment Date" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9075,7 +10059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3E3EDF-2482-4049-BA5D-2FB66799CC23}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -9407,8 +10391,8 @@
   <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="2" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15492,7 +16476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2CD4B6-A3AC-473F-A4D7-22C614C017F7}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -15628,11 +16612,147 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB47C19D-7001-4B92-A259-276A345909D3}">
+  <dimension ref="A3:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="52">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="52">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24"/>
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25"/>
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="B28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B580D1B-0D90-403A-B721-E34CCBC04061}">
   <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21717,7 +22837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE6F324-33A5-4845-9942-D203D37AF40B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -21837,4 +22957,6080 @@
     <oddFooter>&amp;C&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0421F9-92B9-4D9F-88EE-51E56F6470AA}">
+  <dimension ref="A2:I210"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>40588</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="22">
+        <v>5100</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="24">
+        <v>40604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>40603</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="22">
+        <v>179</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="24">
+        <v>40633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>40604</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="22">
+        <v>478</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="24">
+        <v>40634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>40607</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="22">
+        <v>340</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="24">
+        <v>40607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>40617</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="22">
+        <v>50</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="24">
+        <v>40617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>40617</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="22">
+        <v>35</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="24">
+        <v>40617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>40617</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="24">
+        <v>40635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>40617</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="22">
+        <v>90</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="24">
+        <v>40617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>40620</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="22">
+        <v>200</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="24">
+        <v>40620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>40622</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="22">
+        <v>-15000</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="24">
+        <v>40622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>40622</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="22">
+        <v>15000</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="24">
+        <v>40622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>40628</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="22">
+        <v>33000</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="24">
+        <v>40628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>40628</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="22">
+        <v>220</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="24">
+        <v>40628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>40628</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="22">
+        <v>100</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="24">
+        <v>40628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>40628</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="22">
+        <v>6400</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="24">
+        <v>40628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>40633</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="22">
+        <v>100</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="24">
+        <v>40633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>40633</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="22">
+        <v>-100</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="24">
+        <v>40633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>40634</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="22">
+        <v>179</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="24">
+        <v>40664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>40638</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="22">
+        <v>340</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="24">
+        <v>40638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>40645</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="22">
+        <v>87</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="24">
+        <v>40645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>40648</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="22">
+        <v>80</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="24">
+        <v>40648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>40648</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="22">
+        <v>35</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="24">
+        <v>40648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>40648</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="24">
+        <v>40666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
+        <v>40653</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="22">
+        <v>-20000</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="24">
+        <v>40653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
+        <v>40653</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="24">
+        <v>40653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>40658</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="22">
+        <v>1300</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="24">
+        <v>40658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>40659</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="24">
+        <v>40659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
+        <v>40659</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="22">
+        <v>3000</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="24">
+        <v>40689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
+        <v>40659</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="22">
+        <v>220</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="24">
+        <v>40659</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="20">
+        <v>40659</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="22">
+        <v>100</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="24">
+        <v>40659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="20">
+        <v>40659</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="22">
+        <v>6400</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="24">
+        <v>40659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="20">
+        <v>40662</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="22">
+        <v>41</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="24">
+        <v>40692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="20">
+        <v>40663</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="22">
+        <v>100</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="24">
+        <v>40663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="20">
+        <v>40663</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="22">
+        <v>-100</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="24">
+        <v>40663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="20">
+        <v>40664</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="22">
+        <v>179</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="24">
+        <v>40694</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="20">
+        <v>40664</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="22">
+        <v>220</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="24">
+        <v>40694</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="20">
+        <v>40668</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="22">
+        <v>340</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="24">
+        <v>40668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="20">
+        <v>40670</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="22">
+        <v>563</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="24">
+        <v>40670</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="20">
+        <v>40670</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="22">
+        <v>982</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="24">
+        <v>40700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="20">
+        <v>40678</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="22">
+        <v>80</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="24">
+        <v>40678</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="20">
+        <v>40678</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="22">
+        <v>35</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="24">
+        <v>40678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="20">
+        <v>40678</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="24">
+        <v>40696</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="20">
+        <v>40683</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="22">
+        <v>-20000</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="24">
+        <v>40683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="20">
+        <v>40683</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="24">
+        <v>40683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="20">
+        <v>40689</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="24">
+        <v>40689</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="20">
+        <v>40689</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="22">
+        <v>220</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="24">
+        <v>40689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="20">
+        <v>40689</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="22">
+        <v>100</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="24">
+        <v>40689</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="20">
+        <v>40689</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="22">
+        <v>6400</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="24">
+        <v>40689</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="20">
+        <v>40692</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="22">
+        <v>65</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" s="24">
+        <v>40692</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="20">
+        <v>40694</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="22">
+        <v>100</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52" s="24">
+        <v>40694</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="20">
+        <v>40694</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="22">
+        <v>-100</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" s="24">
+        <v>40694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="20">
+        <v>40695</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="22">
+        <v>179</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="24">
+        <v>40725</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="20">
+        <v>40699</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="22">
+        <v>340</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="24">
+        <v>40699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="20">
+        <v>40709</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="22">
+        <v>80</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="24">
+        <v>40709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="20">
+        <v>40709</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="22">
+        <v>35</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="24">
+        <v>40709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="20">
+        <v>40709</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="24">
+        <v>40727</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="20">
+        <v>40714</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="22">
+        <v>-20000</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I59" s="24">
+        <v>40714</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="20">
+        <v>40714</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I60" s="24">
+        <v>40714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="20">
+        <v>40716</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="22">
+        <v>110</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" s="24">
+        <v>40716</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="20">
+        <v>40719</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="22">
+        <v>8700</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I62" s="24">
+        <v>40719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="20">
+        <v>40720</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I63" s="24">
+        <v>40720</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="20">
+        <v>40720</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="22">
+        <v>220</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="24">
+        <v>40720</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="20">
+        <v>40720</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="22">
+        <v>100</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I65" s="24">
+        <v>40720</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="20">
+        <v>40720</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="22">
+        <v>6400</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I66" s="24">
+        <v>40720</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="20">
+        <v>40720</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="22">
+        <v>1782</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" s="24">
+        <v>40720</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="20">
+        <v>40724</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="22">
+        <v>100</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I68" s="24">
+        <v>40724</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="20">
+        <v>40724</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="22">
+        <v>-100</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69" s="24">
+        <v>40724</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="20">
+        <v>40725</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="22">
+        <v>179</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" s="24">
+        <v>40755</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="20">
+        <v>40726</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="22">
+        <v>761</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I71" s="24">
+        <v>40756</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="20">
+        <v>40729</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="22">
+        <v>340</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" s="24">
+        <v>40729</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="20">
+        <v>40739</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="22">
+        <v>80</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" s="24">
+        <v>40739</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="20">
+        <v>40739</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="22">
+        <v>35</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" s="24">
+        <v>40739</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="20">
+        <v>40739</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" s="24">
+        <v>40757</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="20">
+        <v>40740</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="22">
+        <v>29</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I76" s="24">
+        <v>40740</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="20">
+        <v>40741</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" s="22">
+        <v>937</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I77" s="24">
+        <v>40771</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="20">
+        <v>40744</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="22">
+        <v>-20000</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I78" s="24">
+        <v>40744</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="20">
+        <v>40744</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I79" s="24">
+        <v>40744</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="20">
+        <v>40749</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="22">
+        <v>2000</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" s="24">
+        <v>40779</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="20">
+        <v>40750</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I81" s="24">
+        <v>40750</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="20">
+        <v>40750</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E82" s="22">
+        <v>220</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="24">
+        <v>40750</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="20">
+        <v>40750</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="22">
+        <v>100</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I83" s="24">
+        <v>40750</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="20">
+        <v>40750</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="22">
+        <v>6400</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" s="24">
+        <v>40750</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="20">
+        <v>40755</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="22">
+        <v>50</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I85" s="24">
+        <v>40755</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="20">
+        <v>40755</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="22">
+        <v>-50</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I86" s="24">
+        <v>40755</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="20">
+        <v>40756</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="22">
+        <v>179</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" s="24">
+        <v>40786</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="20">
+        <v>40760</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="22">
+        <v>340</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" s="24">
+        <v>40760</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="20">
+        <v>40764</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="22">
+        <v>78</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I89" s="24">
+        <v>40764</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="20">
+        <v>40768</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="22">
+        <v>747</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I90" s="24">
+        <v>40798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="20">
+        <v>40770</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="22">
+        <v>80</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I91" s="24">
+        <v>40770</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="20">
+        <v>40770</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="22">
+        <v>35</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" s="24">
+        <v>40770</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="20">
+        <v>40770</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I93" s="24">
+        <v>40788</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="20">
+        <v>40770</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E94" s="22">
+        <v>1278</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" s="24">
+        <v>40770</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="20">
+        <v>40775</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-20000</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I95" s="24">
+        <v>40775</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="20">
+        <v>40775</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E96" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I96" s="24">
+        <v>40775</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="20">
+        <v>40776</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" s="22">
+        <v>3750</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I97" s="24">
+        <v>40776</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="20">
+        <v>40780</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E98" s="22">
+        <v>6600</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I98" s="24">
+        <v>40780</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="20">
+        <v>40781</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I99" s="24">
+        <v>40781</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="20">
+        <v>40781</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E100" s="22">
+        <v>220</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="24">
+        <v>40781</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="20">
+        <v>40781</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E101" s="22">
+        <v>100</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I101" s="24">
+        <v>40781</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="20">
+        <v>40781</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E102" s="22">
+        <v>6400</v>
+      </c>
+      <c r="F102" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I102" s="24">
+        <v>40781</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="20">
+        <v>40782</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E103" s="22">
+        <v>234</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I103" s="24">
+        <v>40812</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="20">
+        <v>40786</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E104" s="22">
+        <v>50</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I104" s="24">
+        <v>40786</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="20">
+        <v>40786</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E105" s="22">
+        <v>-50</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I105" s="24">
+        <v>40786</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="20">
+        <v>40786</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E106" s="22">
+        <v>2600</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I106" s="24">
+        <v>40786</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="20">
+        <v>40787</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="22">
+        <v>179</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I107" s="24">
+        <v>40817</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="20">
+        <v>40791</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" s="22">
+        <v>340</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" s="24">
+        <v>40791</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="20">
+        <v>40799</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E109" s="22">
+        <v>277.48</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I109" s="24">
+        <v>40829</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="20">
+        <v>40801</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="22">
+        <v>80</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="24">
+        <v>40801</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="20">
+        <v>40801</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="22">
+        <v>35</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" s="24">
+        <v>40801</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="20">
+        <v>40801</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I112" s="24">
+        <v>40819</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="20">
+        <v>40804</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" s="22">
+        <v>5620</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I113" s="24">
+        <v>40804</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="20">
+        <v>40804</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" s="22">
+        <v>12500</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I114" s="24">
+        <v>40804</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="20">
+        <v>40806</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E115" s="22">
+        <v>-20000</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I115" s="24">
+        <v>40806</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="20">
+        <v>40806</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F116" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I116" s="24">
+        <v>40806</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="20">
+        <v>40807</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="22">
+        <v>90</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I117" s="24">
+        <v>40807</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118" s="20">
+        <v>40810</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="22">
+        <v>4242</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I118" s="24">
+        <v>40840</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" s="20">
+        <v>40812</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E119" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I119" s="24">
+        <v>40812</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" s="20">
+        <v>40812</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E120" s="22">
+        <v>220</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" s="24">
+        <v>40812</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="20">
+        <v>40812</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E121" s="22">
+        <v>100</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I121" s="24">
+        <v>40812</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="20">
+        <v>40812</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E122" s="22">
+        <v>6400</v>
+      </c>
+      <c r="F122" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I122" s="24">
+        <v>40812</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="20">
+        <v>40816</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123" s="22">
+        <v>100</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I123" s="24">
+        <v>40816</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="20">
+        <v>40816</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E124" s="22">
+        <v>-100</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I124" s="24">
+        <v>40816</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="20">
+        <v>40817</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="22">
+        <v>179</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I125" s="24">
+        <v>40847</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="20">
+        <v>40820</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E126" s="22">
+        <v>62</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I126" s="24">
+        <v>40850</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" s="20">
+        <v>40820</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E127" s="22">
+        <v>1887</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I127" s="24">
+        <v>40820</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="20">
+        <v>40821</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="22">
+        <v>340</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" s="24">
+        <v>40821</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="20">
+        <v>40831</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" s="22">
+        <v>80</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I129" s="24">
+        <v>40831</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="20">
+        <v>40831</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E130" s="22">
+        <v>35</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I130" s="24">
+        <v>40831</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="20">
+        <v>40831</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H131" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I131" s="24">
+        <v>40849</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="20">
+        <v>40836</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E132" s="22">
+        <v>-20000</v>
+      </c>
+      <c r="F132" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I132" s="24">
+        <v>40836</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A133" s="20">
+        <v>40836</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E133" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I133" s="24">
+        <v>40836</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" s="20">
+        <v>40838</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E134" s="22">
+        <v>289</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H134" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I134" s="24">
+        <v>40868</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="20">
+        <v>40841</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E135" s="22">
+        <v>3300</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I135" s="24">
+        <v>40841</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="20">
+        <v>40842</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E136" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I136" s="24">
+        <v>40842</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="20">
+        <v>40842</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E137" s="22">
+        <v>220</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" s="24">
+        <v>40842</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" s="20">
+        <v>40842</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E138" s="22">
+        <v>100</v>
+      </c>
+      <c r="F138" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I138" s="24">
+        <v>40842</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" s="20">
+        <v>40842</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E139" s="22">
+        <v>6400</v>
+      </c>
+      <c r="F139" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H139" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I139" s="24">
+        <v>40842</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="20">
+        <v>40844</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E140" s="22">
+        <v>218</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G140" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I140" s="24">
+        <v>40844</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141" s="20">
+        <v>40847</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E141" s="22">
+        <v>200</v>
+      </c>
+      <c r="F141" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I141" s="24">
+        <v>40847</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A142" s="20">
+        <v>40847</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E142" s="22">
+        <v>-200</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I142" s="24">
+        <v>40847</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A143" s="20">
+        <v>40848</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" s="22">
+        <v>179</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G143" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H143" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I143" s="24">
+        <v>40878</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="20">
+        <v>40852</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E144" s="22">
+        <v>340</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H144" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" s="24">
+        <v>40852</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="20">
+        <v>40852</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="22">
+        <v>982</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I145" s="24">
+        <v>40882</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" s="20">
+        <v>40862</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E146" s="22">
+        <v>80</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G146" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H146" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I146" s="24">
+        <v>40862</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A147" s="20">
+        <v>40862</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" s="22">
+        <v>35</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H147" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I147" s="24">
+        <v>40862</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="20">
+        <v>40862</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G148" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H148" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I148" s="24">
+        <v>40880</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="20">
+        <v>40866</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E149" s="22">
+        <v>102</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G149" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149" s="24">
+        <v>40866</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" s="20">
+        <v>40867</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E150" s="22">
+        <v>-20000</v>
+      </c>
+      <c r="F150" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I150" s="24">
+        <v>40867</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151" s="20">
+        <v>40867</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E151" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H151" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I151" s="24">
+        <v>40867</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="20">
+        <v>40873</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E152" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F152" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I152" s="24">
+        <v>40873</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A153" s="20">
+        <v>40873</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E153" s="22">
+        <v>220</v>
+      </c>
+      <c r="F153" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H153" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" s="24">
+        <v>40873</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="20">
+        <v>40873</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E154" s="22">
+        <v>100</v>
+      </c>
+      <c r="F154" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H154" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I154" s="24">
+        <v>40873</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155" s="20">
+        <v>40873</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E155" s="22">
+        <v>6400</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H155" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I155" s="24">
+        <v>40873</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="20">
+        <v>40877</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E156" s="22">
+        <v>170</v>
+      </c>
+      <c r="F156" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H156" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I156" s="24">
+        <v>40877</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="20">
+        <v>40877</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E157" s="22">
+        <v>-170</v>
+      </c>
+      <c r="F157" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I157" s="24">
+        <v>40877</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="20">
+        <v>40878</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="22">
+        <v>179</v>
+      </c>
+      <c r="F158" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G158" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H158" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I158" s="24">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A159" s="20">
+        <v>40882</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" s="22">
+        <v>340</v>
+      </c>
+      <c r="F159" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G159" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H159" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I159" s="24">
+        <v>40882</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A160" s="20">
+        <v>40883</v>
+      </c>
+      <c r="B160" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E160" s="22">
+        <v>96</v>
+      </c>
+      <c r="F160" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G160" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I160" s="24">
+        <v>40883</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A161" s="20">
+        <v>40892</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E161" s="22">
+        <v>80</v>
+      </c>
+      <c r="F161" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G161" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H161" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I161" s="24">
+        <v>40892</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A162" s="20">
+        <v>40892</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D162" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E162" s="22">
+        <v>35</v>
+      </c>
+      <c r="F162" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H162" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I162" s="24">
+        <v>40892</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A163" s="20">
+        <v>40892</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E163" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F163" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H163" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I163" s="24">
+        <v>40910</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A164" s="20">
+        <v>40894</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E164" s="22">
+        <v>120</v>
+      </c>
+      <c r="F164" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G164" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H164" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I164" s="24">
+        <v>40924</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A165" s="20">
+        <v>40894</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D165" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E165" s="22">
+        <v>310</v>
+      </c>
+      <c r="F165" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I165" s="24">
+        <v>40924</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A166" s="20">
+        <v>40894</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" s="22">
+        <v>962</v>
+      </c>
+      <c r="F166" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H166" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I166" s="24">
+        <v>40924</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167" s="20">
+        <v>40897</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E167" s="22">
+        <v>-20000</v>
+      </c>
+      <c r="F167" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H167" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I167" s="24">
+        <v>40897</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A168" s="20">
+        <v>40897</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D168" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E168" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F168" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H168" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I168" s="24">
+        <v>40897</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A169" s="20">
+        <v>40899</v>
+      </c>
+      <c r="B169" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D169" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E169" s="22">
+        <v>61</v>
+      </c>
+      <c r="F169" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G169" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I169" s="24">
+        <v>40929</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A170" s="20">
+        <v>40902</v>
+      </c>
+      <c r="B170" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E170" s="22">
+        <v>8400</v>
+      </c>
+      <c r="F170" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H170" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I170" s="24">
+        <v>40902</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" s="20">
+        <v>40903</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E171" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F171" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H171" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I171" s="24">
+        <v>40903</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172" s="20">
+        <v>40903</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E172" s="22">
+        <v>220</v>
+      </c>
+      <c r="F172" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H172" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="24">
+        <v>40903</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A173" s="20">
+        <v>40903</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E173" s="22">
+        <v>100</v>
+      </c>
+      <c r="F173" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H173" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I173" s="24">
+        <v>40903</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174" s="20">
+        <v>40903</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E174" s="22">
+        <v>6400</v>
+      </c>
+      <c r="F174" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H174" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I174" s="24">
+        <v>40903</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175" s="20">
+        <v>40908</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D175" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E175" s="22">
+        <v>100</v>
+      </c>
+      <c r="F175" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H175" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I175" s="24">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176" s="20">
+        <v>40908</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E176" s="22">
+        <v>-100</v>
+      </c>
+      <c r="F176" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I176" s="24">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A177" s="20">
+        <v>40909</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177" s="22">
+        <v>179</v>
+      </c>
+      <c r="F177" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G177" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H177" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I177" s="24">
+        <v>40939</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A178" s="20">
+        <v>40913</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E178" s="22">
+        <v>340</v>
+      </c>
+      <c r="F178" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H178" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I178" s="24">
+        <v>40913</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A179" s="20">
+        <v>40923</v>
+      </c>
+      <c r="B179" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E179" s="22">
+        <v>80</v>
+      </c>
+      <c r="F179" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G179" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H179" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I179" s="24">
+        <v>40923</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A180" s="20">
+        <v>40923</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E180" s="22">
+        <v>35</v>
+      </c>
+      <c r="F180" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G180" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H180" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I180" s="24">
+        <v>40923</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A181" s="20">
+        <v>40923</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E181" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F181" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H181" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I181" s="24">
+        <v>40941</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A182" s="20">
+        <v>40924</v>
+      </c>
+      <c r="B182" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E182" s="22">
+        <v>105</v>
+      </c>
+      <c r="F182" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G182" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H182" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I182" s="24">
+        <v>40924</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183" s="20">
+        <v>40928</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E183" s="22">
+        <v>-20000</v>
+      </c>
+      <c r="F183" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H183" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I183" s="24">
+        <v>40928</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A184" s="20">
+        <v>40928</v>
+      </c>
+      <c r="B184" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E184" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F184" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G184" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H184" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I184" s="24">
+        <v>40928</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A185" s="20">
+        <v>40934</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E185" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F185" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H185" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I185" s="24">
+        <v>40934</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A186" s="20">
+        <v>40934</v>
+      </c>
+      <c r="B186" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E186" s="22">
+        <v>220</v>
+      </c>
+      <c r="F186" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H186" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" s="24">
+        <v>40934</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A187" s="20">
+        <v>40934</v>
+      </c>
+      <c r="B187" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E187" s="22">
+        <v>100</v>
+      </c>
+      <c r="F187" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H187" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I187" s="24">
+        <v>40934</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A188" s="20">
+        <v>40934</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E188" s="22">
+        <v>6400</v>
+      </c>
+      <c r="F188" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G188" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H188" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I188" s="24">
+        <v>40934</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A189" s="20">
+        <v>40934</v>
+      </c>
+      <c r="B189" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E189" s="22">
+        <v>389.25</v>
+      </c>
+      <c r="F189" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G189" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H189" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I189" s="24">
+        <v>40939</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A190" s="20">
+        <v>40936</v>
+      </c>
+      <c r="B190" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="22">
+        <v>514</v>
+      </c>
+      <c r="F190" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G190" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H190" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I190" s="24">
+        <v>40966</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A191" s="20">
+        <v>40939</v>
+      </c>
+      <c r="B191" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D191" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E191" s="22">
+        <v>170</v>
+      </c>
+      <c r="F191" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H191" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I191" s="24">
+        <v>40939</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192" s="20">
+        <v>40939</v>
+      </c>
+      <c r="B192" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C192" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E192" s="22">
+        <v>-170</v>
+      </c>
+      <c r="F192" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I192" s="24">
+        <v>40939</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A193" s="20">
+        <v>40940</v>
+      </c>
+      <c r="B193" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" s="22">
+        <v>179</v>
+      </c>
+      <c r="F193" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G193" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H193" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I193" s="24"/>
+    </row>
+    <row r="194" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A194" s="20">
+        <v>40944</v>
+      </c>
+      <c r="B194" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D194" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E194" s="22">
+        <v>340</v>
+      </c>
+      <c r="F194" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H194" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I194" s="24">
+        <v>40944</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A195" s="20">
+        <v>40950</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D195" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E195" s="22">
+        <v>289</v>
+      </c>
+      <c r="F195" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G195" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H195" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I195" s="24"/>
+    </row>
+    <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A196" s="20">
+        <v>40954</v>
+      </c>
+      <c r="B196" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D196" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E196" s="22">
+        <v>80</v>
+      </c>
+      <c r="F196" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G196" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H196" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I196" s="24">
+        <v>40954</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A197" s="20">
+        <v>40954</v>
+      </c>
+      <c r="B197" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D197" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E197" s="22">
+        <v>35</v>
+      </c>
+      <c r="F197" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G197" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H197" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I197" s="24">
+        <v>40954</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A198" s="20">
+        <v>40954</v>
+      </c>
+      <c r="B198" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D198" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E198" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F198" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G198" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H198" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I198" s="24"/>
+    </row>
+    <row r="199" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A199" s="20">
+        <v>40959</v>
+      </c>
+      <c r="B199" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D199" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E199" s="22">
+        <v>-20000</v>
+      </c>
+      <c r="F199" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G199" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H199" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I199" s="24">
+        <v>40959</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" s="20">
+        <v>40959</v>
+      </c>
+      <c r="B200" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E200" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F200" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H200" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I200" s="24">
+        <v>40959</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A201" s="20">
+        <v>40964</v>
+      </c>
+      <c r="B201" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E201" s="22">
+        <v>2200</v>
+      </c>
+      <c r="F201" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G201" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H201" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I201" s="24">
+        <v>40964</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A202" s="20">
+        <v>40964</v>
+      </c>
+      <c r="B202" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C202" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D202" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E202" s="22">
+        <v>75</v>
+      </c>
+      <c r="F202" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G202" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H202" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I202" s="24">
+        <v>40964</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A203" s="20">
+        <v>40965</v>
+      </c>
+      <c r="B203" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D203" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E203" s="22">
+        <v>10000</v>
+      </c>
+      <c r="F203" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G203" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H203" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I203" s="24"/>
+    </row>
+    <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A204" s="20">
+        <v>40965</v>
+      </c>
+      <c r="B204" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D204" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E204" s="22">
+        <v>20000</v>
+      </c>
+      <c r="F204" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G204" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H204" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I204" s="24">
+        <v>40965</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A205" s="20">
+        <v>40965</v>
+      </c>
+      <c r="B205" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D205" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E205" s="22">
+        <v>220</v>
+      </c>
+      <c r="F205" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H205" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I205" s="24">
+        <v>40965</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A206" s="20">
+        <v>40965</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D206" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E206" s="22">
+        <v>100</v>
+      </c>
+      <c r="F206" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H206" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I206" s="24">
+        <v>40965</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A207" s="20">
+        <v>40965</v>
+      </c>
+      <c r="B207" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D207" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E207" s="22">
+        <v>6400</v>
+      </c>
+      <c r="F207" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G207" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H207" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I207" s="24">
+        <v>40965</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A208" s="20">
+        <v>40968</v>
+      </c>
+      <c r="B208" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D208" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E208" s="22">
+        <v>70</v>
+      </c>
+      <c r="F208" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H208" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I208" s="24">
+        <v>40968</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A209" s="20">
+        <v>40968</v>
+      </c>
+      <c r="B209" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D209" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E209" s="22">
+        <v>-70</v>
+      </c>
+      <c r="F209" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G209" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I209" s="24">
+        <v>40968</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A210" s="20">
+        <v>40968</v>
+      </c>
+      <c r="B210" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C210" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D210" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E210" s="22">
+        <v>3700</v>
+      </c>
+      <c r="F210" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G210" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H210" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I210" s="24">
+        <v>40968</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/section2/ExcelHomework.xlsx
+++ b/section2/ExcelHomework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyslo\Code\SavvyCoders\Homework\section2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD324B50-4F71-4C4D-A894-6E8DCDAA3049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEEB8ED-E2C9-46FA-985E-45B3DE71D8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="21" r:id="rId1"/>
@@ -31,7 +31,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId10"/>
+    <pivotCache cacheId="35" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="197">
   <si>
     <t>Step</t>
   </si>
@@ -713,6 +713,9 @@
   <si>
     <t>Feb</t>
   </si>
+  <si>
+    <t>Student Counts</t>
+  </si>
 </sst>
 </file>
 
@@ -723,7 +726,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="mmm\-yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -812,20 +815,27 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFF00"/>
       <name val="Book Antiqua"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <u/>
+      <sz val="18"/>
       <color rgb="FFFFFF00"/>
       <name val="Book Antiqua"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -872,7 +882,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -992,6 +1002,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1006,7 +1025,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1109,7 +1128,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1126,8 +1144,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1138,7 +1155,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="7" builtinId="3"/>
@@ -1151,61 +1181,7 @@
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Style 1" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="191">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="49">
     <dxf>
       <font>
         <b val="0"/>
@@ -1383,980 +1359,71 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <top/>
+        <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <font>
@@ -2600,6 +1667,9 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <font>
@@ -9172,7 +8242,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C747A03D-941B-49C8-99D0-ECF203354D40}" name="PivotTable2" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C747A03D-941B-49C8-99D0-ECF203354D40}" name="PivotTable2" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
   <location ref="A3:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0"/>
@@ -9275,46 +8345,46 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="190">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="189">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="188">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="187">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="185">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="184">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="182">
+    <format dxfId="40">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="39">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="38">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="179">
+    <format dxfId="37">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="178">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="177">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="3">
@@ -9325,28 +8395,28 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="176">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="33">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="174">
+    <format dxfId="32">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="173">
+    <format dxfId="31">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="172">
+    <format dxfId="30">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="171">
+    <format dxfId="29">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="170">
+    <format dxfId="28">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9374,7 +8444,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{037326E0-118F-47A0-BC9D-9A8E5ECC1128}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{037326E0-118F-47A0-BC9D-9A8E5ECC1128}" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0"/>
@@ -9435,7 +8505,7 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="1" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="155">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9452,36 +8522,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20024602-86CA-4E00-B05D-3EC6222B50EE}" name="Table2" displayName="Table2" ref="A2:I210" totalsRowShown="0" headerRowDxfId="168" dataDxfId="166" headerRowBorderDxfId="167" tableBorderDxfId="165">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20024602-86CA-4E00-B05D-3EC6222B50EE}" name="Table2" displayName="Table2" ref="A2:I210" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
   <autoFilter ref="A2:I210" xr:uid="{20024602-86CA-4E00-B05D-3EC6222B50EE}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{49EF2A0F-1727-4655-B961-3129B370281A}" name="Document Date" dataDxfId="164"/>
-    <tableColumn id="2" xr3:uid="{554837F5-F7FD-4F0E-B670-4EEEEE8E5EC7}" name="Supplier" dataDxfId="163"/>
-    <tableColumn id="3" xr3:uid="{4B5F848B-537D-4B47-8736-9EAB23EFB964}" name="Reference" dataDxfId="162"/>
-    <tableColumn id="4" xr3:uid="{40E7F82E-2B52-46D0-803E-F6924CF35892}" name="Description" dataDxfId="161"/>
-    <tableColumn id="5" xr3:uid="{60AC2904-3B6D-402C-A387-F899EFB1ACC0}" name="Tax Inclusive Amount" dataDxfId="160" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{7BE48675-D866-4989-AF6D-964A384F2DB3}" name="Tax Code" dataDxfId="159"/>
-    <tableColumn id="7" xr3:uid="{5DCBA414-9EF9-41E6-8407-C99896598773}" name="Bank Code" dataDxfId="158"/>
-    <tableColumn id="8" xr3:uid="{8FB084E8-3320-4977-84F5-7CE9616F2065}" name="Account Code" dataDxfId="157"/>
-    <tableColumn id="9" xr3:uid="{71DACAA5-A3E3-406C-923D-30DBC1AD7B50}" name="Payment Date" dataDxfId="156"/>
+    <tableColumn id="1" xr3:uid="{49EF2A0F-1727-4655-B961-3129B370281A}" name="Document Date" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{554837F5-F7FD-4F0E-B670-4EEEEE8E5EC7}" name="Supplier" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{4B5F848B-537D-4B47-8736-9EAB23EFB964}" name="Reference" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{40E7F82E-2B52-46D0-803E-F6924CF35892}" name="Description" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{60AC2904-3B6D-402C-A387-F899EFB1ACC0}" name="Tax Inclusive Amount" dataDxfId="17" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{7BE48675-D866-4989-AF6D-964A384F2DB3}" name="Tax Code" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{5DCBA414-9EF9-41E6-8407-C99896598773}" name="Bank Code" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{8FB084E8-3320-4977-84F5-7CE9616F2065}" name="Account Code" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{71DACAA5-A3E3-406C-923D-30DBC1AD7B50}" name="Payment Date" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCA98589-6D65-4266-AA90-60268AE867A4}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCA98589-6D65-4266-AA90-60268AE867A4}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A2:I210" xr:uid="{DCA98589-6D65-4266-AA90-60268AE867A4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{43F681CB-CD11-4559-B634-5DF601EC6F4C}" name="Document Date" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{F0021E6B-0388-4121-9206-792A652A85BE}" name="Supplier" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{48F40073-BC34-452A-85CD-292A466EF44B}" name="Reference" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{CE1E7C55-E57D-452C-B766-0758964A255E}" name="Description" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{A87A6EA1-266E-421B-906B-3B3E1CD50563}" name="Tax Inclusive Amount" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{581EE525-63C0-491F-8B39-AA69DCB3E224}" name="Tax Code" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{4C1FFD7A-2E49-434B-A7B9-8EFC7C3D1848}" name="Bank Code" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{56586177-232C-4814-8C4A-57463292FB06}" name="Account Code" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{C414DDFD-9BD4-4C00-8B53-9D59600E7B2F}" name="Payment Date" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{43F681CB-CD11-4559-B634-5DF601EC6F4C}" name="Document Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F0021E6B-0388-4121-9206-792A652A85BE}" name="Supplier" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{48F40073-BC34-452A-85CD-292A466EF44B}" name="Reference" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{CE1E7C55-E57D-452C-B766-0758964A255E}" name="Description" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{A87A6EA1-266E-421B-906B-3B3E1CD50563}" name="Tax Inclusive Amount" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{581EE525-63C0-491F-8B39-AA69DCB3E224}" name="Tax Code" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{4C1FFD7A-2E49-434B-A7B9-8EFC7C3D1848}" name="Bank Code" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{56586177-232C-4814-8C4A-57463292FB06}" name="Account Code" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{C414DDFD-9BD4-4C00-8B53-9D59600E7B2F}" name="Payment Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9778,10 +8848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60BCBE4-FD6E-48F7-A916-77868B0707EA}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9790,22 +8860,31 @@
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="52" t="s">
         <v>159</v>
       </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="47" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9964,93 +9043,123 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36">
         <f>MIN(C4:C14)</f>
         <v>11</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D18" s="36">
         <f>MIN(D4:D14)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="M18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36">
         <f>MAX(C4:C14)</f>
         <v>15</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D19" s="36">
         <f>MAX(D4:D14)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="M19" s="57"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36">
         <f>AVERAGE(C4:C14)</f>
         <v>12.454545454545455</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D20" s="36">
         <f>AVERAGE(D4:D14)</f>
         <v>83.545454545454547</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
+      <c r="M20" s="57"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36">
         <f>MODE(C4:C14)</f>
         <v>12</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D21" s="36">
         <f>MODE(D4:D14)</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="M21" s="57"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36">
         <f>MEDIAN(C4:C14)</f>
         <v>12</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D22" s="36">
         <f>MEDIAN(D4:D14)</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="M22" s="57"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B23" s="36">
         <f>COUNTA(B4:B14)</f>
         <v>11</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C23" s="36">
         <f>COUNT(C4:C14)</f>
         <v>11</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D23" s="36">
         <f>COUNT(D4:D14)</f>
         <v>11</v>
       </c>
+      <c r="M23" s="57"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="A16:D17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10060,7 +9169,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="L18" sqref="L18:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10069,39 +9178,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="54" t="s">
         <v>182</v>
       </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="40" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>189</v>
       </c>
       <c r="B4" s="36">
         <v>2000</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="42">
         <v>0.21</v>
       </c>
       <c r="D4" s="36">
@@ -10121,13 +9245,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>190</v>
       </c>
       <c r="B5" s="36">
         <v>450</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="42">
         <v>0.25</v>
       </c>
       <c r="D5" s="36">
@@ -10147,13 +9271,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>191</v>
       </c>
       <c r="B6" s="36">
         <v>975</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="42">
         <v>0.27</v>
       </c>
       <c r="D6" s="36">
@@ -10173,13 +9297,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>192</v>
       </c>
       <c r="B7" s="36">
         <v>1500</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="42">
         <v>0.15</v>
       </c>
       <c r="D7" s="36">
@@ -10199,13 +9323,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>193</v>
       </c>
       <c r="B8" s="36">
         <v>780</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="42">
         <v>0.25</v>
       </c>
       <c r="D8" s="36">
@@ -10225,6 +9349,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16503,13 +15630,13 @@
   <sheetData>
     <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>156</v>
       </c>
     </row>
@@ -16526,7 +15653,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="35">
@@ -16535,7 +15662,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="35">
@@ -16544,7 +15671,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="35">
@@ -16562,7 +15689,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="35">
@@ -16571,7 +15698,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="35">
@@ -16580,7 +15707,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="35">
@@ -16613,7 +15740,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB47C19D-7001-4B92-A259-276A345909D3}">
-  <dimension ref="A3:B28"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -16621,15 +15748,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="54" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="51" t="s">
         <v>156</v>
       </c>
     </row>
@@ -16637,7 +15764,7 @@
       <c r="A4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="50">
         <v>12000</v>
       </c>
     </row>
@@ -16645,101 +15772,9 @@
       <c r="A5" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="50">
         <v>12000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15"/>
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21"/>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23"/>
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24"/>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27"/>
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-      <c r="B28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22963,7 +21998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0421F9-92B9-4D9F-88EE-51E56F6470AA}">
   <dimension ref="A2:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -22974,7 +22009,7 @@
     <col min="6" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
